--- a/MyTeam/Content/templates/BusiReqImportT.xlsx
+++ b/MyTeam/Content/templates/BusiReqImportT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS Projects\MyTeam\MyTeam\Content\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhouMeng\Desktop\团队管理系统\MyTeam\MyTeam\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>业需编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,10 @@
   </si>
   <si>
     <t>需求来源及状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,19 +427,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="20" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="3" width="31.3984375" style="3" customWidth="1"/>
+    <col min="4" max="6" width="20" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,6 +456,9 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/MyTeam/Content/templates/BusiReqImportT.xlsx
+++ b/MyTeam/Content/templates/BusiReqImportT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhouMeng\Desktop\团队管理系统\MyTeam\MyTeam\Content\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS Projects\MyTeam\MyTeam\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -429,19 +429,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.3984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="3" customWidth="1"/>
     <col min="4" max="6" width="20" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.1328125" style="4"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
